--- a/Data/EC/NIT-9004664941.xlsx
+++ b/Data/EC/NIT-9004664941.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87917CB7-DD66-4247-ACE5-EF398C849AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F0AD46-23DD-4CE9-9C76-462A51764D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E06D9873-8698-4E5B-8CA1-0F615F7F8C5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{680D6414-8CDE-4CDA-8DCB-C63856EBFF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="94">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,232 +65,226 @@
     <t>CC</t>
   </si>
   <si>
+    <t>92538997</t>
+  </si>
+  <si>
+    <t>JULIO ALBERTO ARRIETA MERCADO</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1129516785</t>
+  </si>
+  <si>
+    <t>JESUS RAFAEL RAMIREZ OTERO</t>
+  </si>
+  <si>
+    <t>73557465</t>
+  </si>
+  <si>
+    <t>EFRAIN NICOLAS RAMOS DIAZ</t>
+  </si>
+  <si>
+    <t>72003254</t>
+  </si>
+  <si>
+    <t>JOSE JOAQUIN SALCEDO SUAREZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>45368461</t>
   </si>
   <si>
     <t>NANCY PEREZ LUNA</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>92538997</t>
-  </si>
-  <si>
-    <t>JULIO ALBERTO ARRIETA MERCADO</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1129516785</t>
-  </si>
-  <si>
-    <t>JESUS RAFAEL RAMIREZ OTERO</t>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
   </si>
   <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>73557465</t>
-  </si>
-  <si>
-    <t>EFRAIN NICOLAS RAMOS DIAZ</t>
-  </si>
-  <si>
-    <t>72003254</t>
-  </si>
-  <si>
-    <t>JOSE JOAQUIN SALCEDO SUAREZ</t>
-  </si>
-  <si>
-    <t>1065645700</t>
-  </si>
-  <si>
-    <t>RAFAEL ANTONIO CABALLERO BARRIOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -389,7 +383,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -402,9 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,23 +598,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +642,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206618FF-EB8E-C6A0-C7E0-426670ADEF1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7924FC6-1857-4A5D-5E84-B8C0A414ED98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,8 +1049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606005ED-12AD-40CA-BE41-705E5E7E1028}">
-  <dimension ref="B2:J241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1E7A9F-E56B-4F93-8480-005DA1F74EB7}">
+  <dimension ref="B2:J223"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1067,7 +1061,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1080,7 +1074,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1125,7 +1119,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1157,12 +1151,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7048950</v>
+        <v>6214207</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1173,14 +1167,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5">
         <v>64</v>
@@ -1210,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1233,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>43688</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1247,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>46808</v>
+        <v>26120</v>
       </c>
       <c r="G17" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1270,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>46808</v>
+        <v>34240</v>
       </c>
       <c r="G18" s="18">
-        <v>1017000</v>
+        <v>856000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1293,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
-        <v>1017000</v>
+        <v>616000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1322,13 +1316,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1339,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>46808</v>
+        <v>26120</v>
       </c>
       <c r="G21" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1362,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46808</v>
+        <v>34240</v>
       </c>
       <c r="G22" s="18">
-        <v>1017000</v>
+        <v>856000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1385,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
-        <v>1017000</v>
+        <v>616000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1417,10 +1411,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1431,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>46808</v>
+        <v>26120</v>
       </c>
       <c r="G25" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1454,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>46808</v>
+        <v>34240</v>
       </c>
       <c r="G26" s="18">
-        <v>1017000</v>
+        <v>856000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1477,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
-        <v>1017000</v>
+        <v>616000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1506,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>46808</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
-        <v>1017000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1523,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>15625</v>
+        <v>26120</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1546,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1569,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1592,16 +1586,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1615,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1638,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1661,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1684,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1707,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1730,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1753,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1776,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1799,16 +1793,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1822,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1845,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
         <v>24640</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1868,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -1891,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F45" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1914,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1937,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>24640</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1960,13 +1954,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -1983,16 +1977,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2006,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F50" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2029,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>24640</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2052,13 +2046,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>24640</v>
@@ -2075,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2098,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2121,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
         <v>24640</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2144,13 +2138,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
@@ -2167,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2190,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2213,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F59" s="18">
         <v>24640</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2236,13 +2230,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
         <v>24640</v>
@@ -2259,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2282,19 +2276,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2305,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F63" s="18">
         <v>24640</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2328,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F64" s="18">
         <v>24640</v>
@@ -2351,16 +2345,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
-        <v>24640</v>
+        <v>26120</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2374,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2397,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
-        <v>26041</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2420,16 +2414,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2443,16 +2437,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2466,19 +2460,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2489,19 +2483,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2512,16 +2506,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2535,16 +2529,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2558,19 +2552,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2581,19 +2575,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2604,16 +2598,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2627,16 +2621,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2650,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2673,19 +2667,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2696,16 +2690,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2719,16 +2713,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2742,19 +2736,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2765,19 +2759,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2788,16 +2782,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2811,16 +2805,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2834,19 +2828,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2857,19 +2851,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2880,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2903,16 +2897,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2926,19 +2920,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2949,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2972,16 +2966,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2995,16 +2989,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3018,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3041,19 +3035,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3064,16 +3058,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3087,16 +3081,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3110,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3133,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3156,16 +3150,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3179,16 +3173,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>26120</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3202,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>34240</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3225,19 +3219,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3248,16 +3242,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3271,13 +3265,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
         <v>26120</v>
@@ -3294,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3317,19 +3311,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" s="18">
-        <v>26120</v>
+        <v>19712</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3340,16 +3334,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
-        <v>26120</v>
+        <v>24640</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3363,13 +3357,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F109" s="18">
         <v>26120</v>
@@ -3386,19 +3380,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F110" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3409,16 +3403,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F111" s="18">
-        <v>26120</v>
+        <v>24640</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3432,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F112" s="18">
         <v>26120</v>
@@ -3455,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F113" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G113" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3478,16 +3472,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F114" s="18">
-        <v>26120</v>
+        <v>24640</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3501,13 +3495,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F115" s="18">
         <v>26120</v>
@@ -3524,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F116" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3547,16 +3541,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F117" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3570,16 +3564,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F118" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3593,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F119" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3616,16 +3610,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F120" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3639,16 +3633,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F121" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3662,19 +3656,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F122" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3685,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F123" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3708,16 +3702,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F124" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3731,19 +3725,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F125" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G125" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3754,16 +3748,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F126" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3777,16 +3771,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F127" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3800,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F128" s="18">
-        <v>26120</v>
+        <v>34240</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>856000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3823,16 +3817,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F129" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3846,16 +3840,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F130" s="18">
-        <v>26120</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3869,16 +3863,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F131" s="18">
-        <v>28533</v>
+        <v>34240</v>
       </c>
       <c r="G131" s="18">
         <v>856000</v>
@@ -3892,19 +3886,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F132" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3915,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F133" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3938,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F134" s="18">
         <v>34240</v>
@@ -3961,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F135" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3984,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F136" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4007,13 +4001,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F137" s="18">
         <v>34240</v>
@@ -4030,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F138" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4053,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F139" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4076,13 +4070,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F140" s="18">
         <v>34240</v>
@@ -4099,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F141" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4122,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F142" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4145,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F143" s="18">
         <v>34240</v>
@@ -4168,19 +4162,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F144" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4191,19 +4185,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F145" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4214,13 +4208,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F146" s="18">
         <v>34240</v>
@@ -4237,19 +4231,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F147" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4260,19 +4254,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F148" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4283,13 +4277,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F149" s="18">
         <v>34240</v>
@@ -4306,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F150" s="18">
-        <v>34240</v>
+        <v>15625</v>
       </c>
       <c r="G150" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4329,19 +4323,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F151" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4352,13 +4346,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F152" s="18">
         <v>34240</v>
@@ -4375,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F153" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4398,13 +4392,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F154" s="18">
         <v>34240</v>
@@ -4421,19 +4415,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F155" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4444,13 +4438,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F156" s="18">
         <v>34240</v>
@@ -4467,19 +4461,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F157" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4490,13 +4484,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F158" s="18">
         <v>34240</v>
@@ -4513,19 +4507,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F159" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4536,13 +4530,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F160" s="18">
         <v>34240</v>
@@ -4559,19 +4553,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F161" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4582,13 +4576,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F162" s="18">
         <v>34240</v>
@@ -4605,19 +4599,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F163" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4628,13 +4622,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F164" s="18">
         <v>34240</v>
@@ -4651,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F165" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4674,13 +4668,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F166" s="18">
         <v>34240</v>
@@ -4697,19 +4691,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F167" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G167" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4720,19 +4714,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F168" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4743,13 +4737,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F169" s="18">
         <v>34240</v>
@@ -4766,19 +4760,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F170" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G170" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4789,19 +4783,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F171" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4812,13 +4806,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F172" s="18">
         <v>34240</v>
@@ -4835,19 +4829,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F173" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G173" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4858,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F174" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4881,13 +4875,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F175" s="18">
         <v>34240</v>
@@ -4904,19 +4898,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F176" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G176" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4927,19 +4921,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F177" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4950,13 +4944,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F178" s="18">
         <v>34240</v>
@@ -4973,19 +4967,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F179" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G179" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4996,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F180" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5019,13 +5013,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F181" s="18">
         <v>34240</v>
@@ -5042,19 +5036,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F182" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G182" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5065,19 +5059,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F183" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5088,13 +5082,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F184" s="18">
         <v>34240</v>
@@ -5111,19 +5105,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F185" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G185" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5134,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F186" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5157,13 +5151,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F187" s="18">
         <v>34240</v>
@@ -5180,19 +5174,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F188" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G188" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5203,19 +5197,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F189" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5226,13 +5220,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F190" s="18">
         <v>34240</v>
@@ -5249,19 +5243,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F191" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G191" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5272,19 +5266,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F192" s="18">
-        <v>34240</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>856000</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5295,13 +5289,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F193" s="18">
         <v>34240</v>
@@ -5318,19 +5312,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F194" s="18">
-        <v>34240</v>
+        <v>46808</v>
       </c>
       <c r="G194" s="18">
-        <v>856000</v>
+        <v>1170200</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5341,19 +5335,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F195" s="18">
-        <v>19712</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5364,19 +5358,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F196" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G196" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5387,19 +5381,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F197" s="18">
-        <v>24640</v>
+        <v>46808</v>
       </c>
       <c r="G197" s="18">
-        <v>616000</v>
+        <v>1170200</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5410,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F198" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5433,19 +5427,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F199" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G199" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5456,19 +5450,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F200" s="18">
-        <v>24640</v>
+        <v>46808</v>
       </c>
       <c r="G200" s="18">
-        <v>616000</v>
+        <v>1170200</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5479,19 +5473,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F201" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5502,19 +5496,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F202" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G202" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5525,19 +5519,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F203" s="18">
-        <v>24640</v>
+        <v>43688</v>
       </c>
       <c r="G203" s="18">
-        <v>616000</v>
+        <v>1170200</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5548,19 +5542,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F204" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5571,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F205" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G205" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5594,19 +5588,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F206" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5617,19 +5611,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F207" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G207" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5640,19 +5634,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F208" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5663,19 +5657,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F209" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G209" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5686,19 +5680,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F210" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5709,19 +5703,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F211" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G211" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5732,19 +5726,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F212" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5755,19 +5749,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F213" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G213" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5778,19 +5772,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D214" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F214" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5801,19 +5795,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D215" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F215" s="18">
-        <v>24640</v>
+        <v>34240</v>
       </c>
       <c r="G215" s="18">
-        <v>616000</v>
+        <v>856000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5824,489 +5818,75 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D216" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E216" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F216" s="18">
-        <v>24640</v>
+        <v>26041</v>
       </c>
       <c r="G216" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
       <c r="J216" s="20"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D217" s="17" t="s">
+      <c r="B217" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E217" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F217" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G217" s="18">
-        <v>616000</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F218" s="18">
-        <v>39007</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F219" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F220" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F221" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="F217" s="24">
+        <v>28533</v>
+      </c>
+      <c r="G217" s="24">
+        <v>856000</v>
+      </c>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
+      <c r="J217" s="26"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F222" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="B222" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" s="32"/>
+      <c r="H222" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F223" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F224" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G226" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B227" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F227" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G227" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B228" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E228" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G228" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B229" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E229" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G229" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B230" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F230" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G230" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E231" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F231" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G231" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B232" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F232" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G232" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B233" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E233" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F233" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G233" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D234" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F234" s="18">
-        <v>46808</v>
-      </c>
-      <c r="G234" s="18">
-        <v>1170200</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B235" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C235" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D235" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F235" s="24">
-        <v>46808</v>
-      </c>
-      <c r="G235" s="24">
-        <v>1170200</v>
-      </c>
-      <c r="H235" s="25"/>
-      <c r="I235" s="25"/>
-      <c r="J235" s="26"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C240" s="32"/>
-      <c r="H240" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B241" s="32" t="s">
+      <c r="B223" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C223" s="32"/>
+      <c r="H223" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C241" s="32"/>
-      <c r="H241" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="H241:J241"/>
-    <mergeCell ref="H240:J240"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="H222:J222"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
